--- a/biology/Histoire de la zoologie et de la botanique/Anno_Faubel/Anno_Faubel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Anno_Faubel/Anno_Faubel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anno Faubel est un zoologiste allemand, né en 1942, spécialiste des vers marins.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie et carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est Privatdozent	à l'Université de Hambourg de 1986 à 2007. Il a ensuite pris sa retraite.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Anno Faubel, « Interstitielle Acoela (Turbellaria) aus dem Littoral der nordfriesischen Inseln Sylt und Amrum (Nordsee) », Mitteilungen aus dem Hamburgischen Zoologischen Museum und Institut, 1976, vol. 73, p. 17-56.
 (en) Anno Faubel, « Determination of individual meiofauna dry weight values in relation to definite size classes », 1982, Cah. Biol. Mar. 23(4), p. 339-345.
@@ -579,15 +595,86 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plus de 90 taxons portent ou ont porté le nom d'auteur d'Anno Faubel[1]. D'après World Register of Marine Species                               (10 novembre 2023)[2], les taxons suivants ont été décrits par Anno Faubel. 
-Taxons nommés en l'honneur de Anno Faubel
-Famille des Faubelidae Özdikmen, 2010[3]
-Ordre Faubelus Özdikmen, 2010[3]
-Espèce Faubelus neupommerensis (Faubel, 1983)[3]
-Taxons valides décrits par Anno Faubel
-Familles et super-familles dans les Polycladida
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plus de 90 taxons portent ou ont porté le nom d'auteur d'Anno Faubel. D'après World Register of Marine Species                               (10 novembre 2023), les taxons suivants ont été décrits par Anno Faubel. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anno_Faubel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anno_Faubel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taxons nommés en l'honneur de Anno Faubel</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Famille des Faubelidae Özdikmen, 2010
+Ordre Faubelus Özdikmen, 2010
+Espèce Faubelus neupommerensis (Faubel, 1983)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anno_Faubel</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anno_Faubel</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Taxons valides décrits par Anno Faubel</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Familles et super-familles dans les Polycladida
 Famille des Didangiidae Faubel, 1983
 Famille des Ilyplanidae Faubel, 1983
 Super-famille des Leptoplanoidea Faubel, 1984
@@ -605,9 +692,43 @@
 Super-famille des Pseudocerotoidea Faubel, 1984
 Famille des Euryleptididae Faubel, 1984
 Famille dans les Acoela
-Famille des Antroposthiidae Faubel, 1976
-Taxons obsolètes décrits par Anno Faubel
-La famille Notocirridae Faubel, 1983, a été remplacé par Faubelidae Özdikmen, 2010, en l'honneur de Anno Faubel
+Famille des Antroposthiidae Faubel, 1976</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anno_Faubel</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anno_Faubel</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Taxons obsolètes décrits par Anno Faubel</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La famille Notocirridae Faubel, 1983, a été remplacé par Faubelidae Özdikmen, 2010, en l'honneur de Anno Faubel
 Le genre Notocirrus Faubel, 1983, a été remplacé par Faubelus Özdikmen, 2010, en l'honneur de Anno Faubel
 L'espèce Notocirrus neupommerensis Faubel, 1983, a été remplacée par Faubelus neupommerensis (Faubel, 1983), en l'honneur de Anno Faubel
 La super-famille des Ilyplanoidea Faubel, 1984, est remplacée par Discoceloidea Dittmann, Cuadrado, Aguado, Noreña &amp; Egger, 2019
